--- a/ProjectManagement.xlsx
+++ b/ProjectManagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OfficeJS\xltool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085C85D-81D5-4603-B0C6-15DAF6A73464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F4F37-726E-4185-A403-777A9EAC688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7455" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{8432AB85-A212-F440-9F57-FFCFE3AE01FC}"/>
+    <workbookView xWindow="19440" yWindow="0" windowWidth="17990" windowHeight="21600" activeTab="1" xr2:uid="{8432AB85-A212-F440-9F57-FFCFE3AE01FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="132">
   <si>
     <t>PIC</t>
   </si>
@@ -433,6 +433,15 @@
   </si>
   <si>
     <t>np</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>behind schedule</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,18 +541,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00FF00"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,8 +629,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -810,6 +830,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -817,7 +907,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -854,35 +944,11 @@
     <xf numFmtId="9" fontId="10" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -892,58 +958,13 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -958,16 +979,10 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -986,13 +1001,27 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,19 +1046,142 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1037,7 +1189,7 @@
     <cellStyle name="Output" xfId="3" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="36">
     <dxf>
       <font>
         <b/>
@@ -1119,6 +1271,666 @@
           <bgColor rgb="FF256593"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1351,98 +2163,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>14942</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!wbs_update" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14F77C9-52EE-9F05-7194-910227B8F3D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="298824" y="194237"/>
-          <a:ext cx="914400" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="48000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="97000"/>
-                <a:lumOff val="3000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Update</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1531,7 +2251,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1624,18 +2344,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C122661-3906-C34F-866B-2CE6632C3CD1}" name="Tbl_Timesheet" displayName="Tbl_Timesheet" ref="A1:G9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C078C90E-DC22-4684-8BFC-76F1C6B65A8C}" name="Tbl_WBS" displayName="Tbl_WBS" ref="A9:P49" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="A9:P49" xr:uid="{C078C90E-DC22-4684-8BFC-76F1C6B65A8C}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{4228A20E-092B-4EFF-AA01-0094852146E2}" name="#" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{716E996B-4CBF-4203-8E5F-A94C43F79E34}" name="Phase" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{45EE96EB-7354-4F05-92D7-005E7BA93CE8}" name="Task" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{97C4CFB7-D337-4022-B823-60B373C4574D}" name="PIC" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{9CDA3771-DA8D-4E89-B281-41EAC78BED4A}" name="P.Start" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{65B32E5A-FE50-44E8-8669-6F7A9312CFC7}" name="P.End" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{4B19E044-4F5E-44B0-A04D-BB97E8BD18A0}" name="P.Effort" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{FFF42B0E-4995-44D9-95D6-D1E6DFEAB3FC}" name="P.Completed" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{D895927A-5050-493E-B2B3-B8BFE5D802EB}" name="A.Start" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{6231A742-CE0A-47C7-9B0D-BBFC34ADAFC8}" name="A.End" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{D6B1D589-4A0D-407C-9C29-378BF8BEE01B}" name="A.Effort" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{9FED4B7B-5AAC-4BB5-9A55-0015EE7FEDF3}" name="A.Completed" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{28559AFF-A0EC-40C8-B5AF-3445AF4814DD}" name="Status" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{2259E356-DA95-4A9C-9BDB-53C8F9CAD09C}" name="Tool check" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{814E752A-78B0-460F-AA19-8981C64A22FD}" name="Note" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{745688EC-0136-4F3B-8FB2-6D1E7A2F9252}" name="Action" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C122661-3906-C34F-866B-2CE6632C3CD1}" name="Tbl_Timesheet" displayName="Tbl_Timesheet" ref="A1:G9" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:G9" xr:uid="{1C122661-3906-C34F-866B-2CE6632C3CD1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DE096AF5-301A-E94C-B9BC-1B9535282894}" name="Date" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B3E5CAC1-052E-5844-8938-4E34CCE3C7F4}" name="PIC" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1C6A9AEA-B2DD-F342-A6A0-9DFC12CC833F}" name="Task" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{98E04831-CA3F-DB4A-8AC8-4BBC5282EA84}" name="TOW" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{8A691054-A984-1747-9FAC-B73FCF78ADFD}" name="Hours" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{4F8226B0-00C9-FD41-A6D3-20B369691EFF}" name="% completed" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{E380B26E-F11D-8E41-AEAB-A3DCD3CF1749}" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{DE096AF5-301A-E94C-B9BC-1B9535282894}" name="Date" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{B3E5CAC1-052E-5844-8938-4E34CCE3C7F4}" name="PIC" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{1C6A9AEA-B2DD-F342-A6A0-9DFC12CC833F}" name="Task" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{98E04831-CA3F-DB4A-8AC8-4BBC5282EA84}" name="TOW" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{8A691054-A984-1747-9FAC-B73FCF78ADFD}" name="Hours" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{4F8226B0-00C9-FD41-A6D3-20B369691EFF}" name="% completed" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{E380B26E-F11D-8E41-AEAB-A3DCD3CF1749}" name="Description" dataDxfId="27"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1939,8 +2684,11 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
-  <wetp:taskpane dockstate="right" visibility="0" width="345" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="525" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="1029" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
@@ -1965,737 +2713,749 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension3.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{339CB48A-523B-46BF-BA92-23F97A866852}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D2B6C0-A87F-7D49-96BC-280EBB949091}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="48" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="48"/>
-    <col min="6" max="6" width="13.6640625" style="48" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="19" style="48" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="48"/>
-    <col min="11" max="14" width="11.6640625" style="48" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="48"/>
+    <col min="1" max="1" width="3.83203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="25"/>
+    <col min="6" max="6" width="13.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="19" style="25" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="25"/>
+    <col min="11" max="14" width="11.6640625" style="25" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="C1" s="60">
+      <c r="C1" s="35">
         <v>44970</v>
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="C2" s="60">
+      <c r="C2" s="35">
         <v>45025</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="26" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64">
+      <c r="G8" s="38"/>
+      <c r="H8" s="39">
         <v>16.737500000000008</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="65">
+      <c r="C9" s="38"/>
+      <c r="D9" s="40">
         <v>44984</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64">
+      <c r="G9" s="38"/>
+      <c r="H9" s="39">
         <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64">
+      <c r="G10" s="38"/>
+      <c r="H10" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64">
+      <c r="G11" s="38"/>
+      <c r="H11" s="39">
         <f>H8-total_effort_spent</f>
         <v>16.612500000000008</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78" t="s">
+      <c r="F13" s="57"/>
+      <c r="G13" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="42" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="43">
         <v>0</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="43">
         <v>0</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="43">
         <v>0</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="43">
         <v>0</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="44">
         <v>0</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="43">
         <v>10</v>
       </c>
-      <c r="D16" s="68">
-        <v>8</v>
-      </c>
-      <c r="E16" s="68">
+      <c r="D16" s="43">
+        <v>8</v>
+      </c>
+      <c r="E16" s="43">
         <v>10</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="43">
         <v>7</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="44">
         <v>0</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="43">
         <v>10</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="43">
         <v>5</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="43">
         <v>10</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="43">
         <v>5</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="44">
         <v>0</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="43">
         <v>10</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="43">
         <v>5</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="43">
         <v>10</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="43">
         <v>5</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="44">
         <v>0</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="43">
         <v>6</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="43">
         <v>2</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="43">
         <v>5</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="43">
         <v>0</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="44">
         <v>0</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="47" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="65">
+      <c r="B23" s="40">
         <v>44970</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="40">
         <v>44970</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="40">
         <v>44973</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="40">
         <v>44970</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="40">
         <v>44985</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="65">
+      <c r="B24" s="40">
         <v>44977</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="40">
         <v>44978</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="40">
         <v>44981</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="40">
         <v>44973</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="40">
         <v>44998</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="65">
+      <c r="B25" s="40">
         <v>44984</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="40">
         <v>44984</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="40">
         <v>44985</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="40">
         <v>44981</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="40">
         <v>44994</v>
       </c>
-      <c r="I25" s="73">
+      <c r="I25" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="65">
+      <c r="B26" s="40">
         <v>44984</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="40">
         <v>44986</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="40">
         <v>44988</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="40">
         <v>44984</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="40">
         <v>44988</v>
       </c>
-      <c r="I26" s="73">
+      <c r="I26" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="65">
+      <c r="B27" s="40">
         <v>44984</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="40">
         <v>44986</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="40">
         <v>44988</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="40">
         <v>44991</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="40">
         <v>44991</v>
       </c>
-      <c r="I27" s="73">
+      <c r="I27" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="65">
+      <c r="B28" s="40">
         <v>44984</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="40">
         <v>44986</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="40">
         <v>44988</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="40">
         <v>44979</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="40">
         <v>44985</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="65">
+      <c r="B29" s="40">
         <v>44984</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="40">
         <v>44986</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="40">
         <v>44987</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="40">
         <v>44979</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="40">
         <v>44987</v>
       </c>
-      <c r="I29" s="73">
+      <c r="I29" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="65">
+      <c r="B30" s="40">
         <v>44984</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="40">
         <v>44986</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="40">
         <v>44988</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="73"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="48"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="65">
+      <c r="B31" s="40">
         <v>44984</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="40">
         <v>44986</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="40">
         <v>44987</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="73"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="65">
+      <c r="B32" s="40">
         <v>44991</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="40">
         <v>44991</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="40">
         <v>44994</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="40">
         <v>44991</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="40">
         <v>44994</v>
       </c>
-      <c r="I32" s="73">
+      <c r="I32" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="65">
+      <c r="B33" s="40">
         <v>44991</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="40">
         <v>44992</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="40">
         <v>44994</v>
       </c>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="73"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="65">
+      <c r="B34" s="40">
         <v>44998</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="40">
         <v>44999</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="40">
         <v>45001</v>
       </c>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="73"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="65">
+      <c r="B35" s="40">
         <v>44998</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="40">
         <v>44999</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="40">
         <v>45000</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="40">
         <v>44999</v>
       </c>
-      <c r="H35" s="65">
+      <c r="H35" s="40">
         <v>44999</v>
       </c>
-      <c r="I35" s="73">
+      <c r="I35" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="65">
+      <c r="B36" s="40">
         <v>45005</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="40">
         <v>45006</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="40">
         <v>45008</v>
       </c>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="73"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="48"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="65">
+      <c r="B37" s="40">
         <v>45005</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="40">
         <v>45006</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="40">
         <v>45009</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="40">
         <v>44986</v>
       </c>
-      <c r="H37" s="65">
+      <c r="H37" s="40">
         <v>44988</v>
       </c>
-      <c r="I37" s="73">
+      <c r="I37" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="65">
+      <c r="B38" s="40">
         <v>45005</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="40">
         <v>45006</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="40">
         <v>45008</v>
       </c>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="73"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="65">
+      <c r="B39" s="40">
         <v>45012</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="40">
         <v>45012</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="40">
         <v>45015</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="73"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2713,10 +3473,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC64688-45B5-4B4C-A41A-37F791017B5D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14"/>
@@ -2726,19 +3486,19 @@
     <col min="3" max="3" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="8"/>
     <col min="5" max="6" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.9140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="9" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.5" style="45" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.5" style="23" customWidth="1"/>
     <col min="15" max="16" width="10.83203125" style="8"/>
     <col min="17" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2747,8 +3507,8 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -2756,7 +3516,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2765,16 +3525,18 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2783,16 +3545,18 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2801,68 +3565,74 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="12" t="s">
         <v>3</v>
       </c>
@@ -2876,15 +3646,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="12"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="80"/>
+      <c r="E8" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="59"/>
       <c r="G8" s="14">
         <f>SUM(G10:G1005)</f>
         <v>1071.2000000000003</v>
@@ -2893,10 +3663,10 @@
         <f>AVERAGE(H10:H1005)</f>
         <v>0.86041666666666661</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="14">
         <f>SUM(K10:K1005)</f>
         <v>398</v>
@@ -2910,1425 +3680,1782 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="72" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="25">
+    <row r="10" spans="1:18">
+      <c r="A10" s="93">
         <v>0</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="96">
         <v>44970</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="96">
         <v>44973</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="20">
         <v>28</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="21">
         <v>1</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="86">
         <v>44970</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="87">
         <v>44985</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="79">
         <v>50</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="97">
         <v>1</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="25">
+      <c r="M10" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="98"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="93">
         <v>1</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="96">
         <v>44974</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="96">
         <v>44977</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="20">
         <v>20</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="21">
         <v>1</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="86">
         <v>44978</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="87">
         <v>44981</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="79">
         <v>32</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="97">
         <v>1</v>
       </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="25">
+      <c r="M11" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="98"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="93">
         <v>2</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="96">
         <v>44978</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="96">
         <v>44981</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="20">
         <v>28</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="21">
         <v>1</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="86">
         <v>44973</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="87">
         <v>44998</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="80">
         <v>17</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="97">
         <v>1</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="25">
+      <c r="M12" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="98"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="93">
         <v>3</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="96">
         <v>44984</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="96">
         <v>44985</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="20">
         <v>20</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="21">
         <v>1</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="86">
         <v>44981</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="87">
         <v>44994</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="80">
         <v>9</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="75">
         <v>1</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="25">
+      <c r="M13" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="98"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="93">
         <v>4</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="96">
         <v>44986</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="96">
         <v>44988</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="20">
         <v>28</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="21">
         <v>1</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="86">
         <v>44984</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="87">
         <v>44988</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="79">
         <v>42</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="75">
         <v>1</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="25">
+      <c r="M14" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="93">
         <v>5</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="96">
         <v>44991</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="96">
         <v>44994</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="20">
         <v>28</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="21">
         <v>1</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="86">
         <v>44991</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="87">
         <v>44994</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="81">
         <v>32</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="75">
         <v>1</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="25">
+      <c r="M15" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="98"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="93">
         <v>6</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="96">
         <v>44995</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="96">
         <v>44998</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="20">
         <v>20</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="21">
         <v>1</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="86">
         <v>44995</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="87">
         <v>44998</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="79">
         <v>24</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="75">
         <v>1</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="25">
+      <c r="M16" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="98"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="93">
         <v>7</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="96">
         <v>44999</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="96">
         <v>45005</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="20">
         <v>32</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="86">
         <v>44999</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="36">
-        <v>8</v>
-      </c>
-      <c r="L17" s="40">
+      <c r="J17" s="77"/>
+      <c r="K17" s="80">
+        <v>8</v>
+      </c>
+      <c r="L17" s="75">
         <v>0.25</v>
       </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="25">
-        <v>8</v>
-      </c>
-      <c r="B18" s="53" t="s">
+      <c r="M17" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="98"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="93">
+        <v>8</v>
+      </c>
+      <c r="B18" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="96">
         <v>45006</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="96">
         <v>45008</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="20">
         <v>24</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="21">
         <v>1</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="25">
+      <c r="I18" s="22"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="93">
         <v>9</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="96">
         <v>45009</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="96">
         <v>45014</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="20">
         <v>28</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="21">
         <v>1</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="25">
+      <c r="I19" s="22"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="93">
         <v>10</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="96">
         <v>44986</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="96">
         <v>44991</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="20">
         <v>35.200000000000003</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="21">
         <v>1</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="86">
         <v>44984</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="87">
         <v>44992</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="79">
         <v>39</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="75">
         <v>1</v>
       </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="25">
+      <c r="M20" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" s="98"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="100"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="93">
         <v>11</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="96">
         <v>44999</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="96">
         <v>45001</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="20">
         <v>25.6</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="21">
         <v>1</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="25">
+      <c r="I21" s="22"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="93">
         <v>12</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="96">
         <v>44986</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="96">
         <v>44991</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="102">
         <v>35.200000000000003</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="21">
         <v>1</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="88">
         <v>44992</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="88">
         <v>44995</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="82">
         <v>10</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="75">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="25">
+      <c r="M22" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="103"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="104"/>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="93">
         <v>13</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="96">
         <v>44986</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="96">
         <v>44988</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="102">
         <v>25.6</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="21">
         <v>1</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="88">
         <v>44991</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="88">
         <v>44991</v>
       </c>
-      <c r="K23" s="44">
-        <v>8</v>
-      </c>
-      <c r="L23" s="37">
+      <c r="K23" s="82">
+        <v>8</v>
+      </c>
+      <c r="L23" s="75">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="25">
+      <c r="M23" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="103"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="104"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="93">
         <v>14</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="96">
         <v>45006</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="96">
         <v>45009</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="102">
         <v>35.200000000000003</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="21">
         <v>1</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="88">
         <v>44986</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="88">
         <v>44988</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="82">
         <v>12</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="75">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="25">
+      <c r="M24" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="103"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="104"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="93">
         <v>15</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="96">
         <v>45012</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="96">
         <v>45015</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="102">
         <v>35.200000000000003</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="21">
         <v>1</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="L25" s="43"/>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="25">
+      <c r="I25" s="24"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25" s="102"/>
+      <c r="P25" s="104"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="93">
         <v>16</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="96">
         <v>45015</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="96">
         <v>45019</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="102">
         <v>25.6</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="21">
         <v>1</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="L26" s="43"/>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="25">
+      <c r="I26" s="24"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" s="102"/>
+      <c r="P26" s="104"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="93">
         <v>17</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="96">
         <v>45016</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="96">
         <v>45022</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="102">
         <v>44.8</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="21">
         <v>1</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="L27" s="43"/>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="25">
+      <c r="I27" s="24"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O27" s="102"/>
+      <c r="P27" s="104"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="93">
         <v>18</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="96">
         <v>45020</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="96">
         <v>45023</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="102">
         <v>32</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="21">
         <v>1</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="L28" s="43"/>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="25">
+      <c r="I28" s="24"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O28" s="102"/>
+      <c r="P28" s="104"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="93">
         <v>19</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="96">
         <v>45023</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="96">
         <v>45028</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="102">
         <v>35.200000000000003</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="21">
         <v>0.25</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="L29" s="43"/>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="25">
+      <c r="I29" s="24"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O29" s="102"/>
+      <c r="P29" s="104"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="93">
         <v>20</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="96">
         <v>44986</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="96">
         <v>44988</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="102">
         <v>16</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="21">
         <v>1</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="88">
         <v>44979</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="88">
         <v>44985</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="83">
         <v>18</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="75">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="25">
+      <c r="M30" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="103"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="104"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="93">
         <v>21</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="96">
         <v>44986</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="96">
         <v>44987</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="102">
         <v>12</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="21">
         <v>1</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="88">
         <v>44979</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="88">
         <v>44987</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="83">
         <v>19</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="75">
         <v>1</v>
       </c>
-      <c r="Y31" s="74"/>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="25">
+      <c r="M31" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" s="103"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="104"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="93">
         <v>22</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="96">
         <v>44986</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="96">
         <v>44988</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="102">
         <v>16</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="21">
         <v>1</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="L32" s="43"/>
-    </row>
-    <row r="33" spans="1:27">
-      <c r="A33" s="25">
+      <c r="I32" s="24"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N32" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32" s="102"/>
+      <c r="P32" s="104"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="93">
         <v>23</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="96">
         <v>44986</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="96">
         <v>44987</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="102">
         <v>12</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="21">
         <v>1</v>
       </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="L33" s="43"/>
-    </row>
-    <row r="34" spans="1:27">
-      <c r="A34" s="25">
+      <c r="I33" s="24"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O33" s="102"/>
+      <c r="P33" s="104"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="93">
         <v>24</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="96">
         <v>44994</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="96">
         <v>44998</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="102">
         <v>16</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="21">
         <v>1</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="88">
         <v>44994</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="88">
         <v>44998</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="82">
         <v>14</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="75">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
-      <c r="A35" s="25">
+      <c r="M34" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34" s="103"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="104"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
+      <c r="AB34" s="89"/>
+      <c r="AC34" s="89"/>
+      <c r="AD34" s="89"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="93">
         <v>25</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="96">
         <v>44995</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="96">
         <v>44999</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="102">
         <v>16</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="21">
         <v>1</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="88">
         <v>44994</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="88">
         <v>44999</v>
       </c>
-      <c r="K35" s="44">
+      <c r="K35" s="82">
         <v>14</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="75">
         <v>1</v>
       </c>
-      <c r="AA35" s="74"/>
-    </row>
-    <row r="36" spans="1:27">
-      <c r="A36" s="25">
+      <c r="M35" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35" s="103"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="104"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="89"/>
+      <c r="AB35" s="89"/>
+      <c r="AC35" s="89"/>
+      <c r="AD35" s="89"/>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="93">
         <v>26</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="96">
         <v>44999</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="96">
         <v>45000</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="102">
         <v>12</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="21">
         <v>1</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="88">
         <v>44999</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="88">
         <v>44999</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="82">
         <v>5</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="75">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
-      <c r="A37" s="25">
+      <c r="M36" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" s="103"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="104"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="89"/>
+      <c r="AB36" s="89"/>
+      <c r="AC36" s="89"/>
+      <c r="AD36" s="89"/>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="93">
         <v>27</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="96">
         <v>45006</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="96">
         <v>45008</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="102">
         <v>24</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="21">
         <v>1</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="L37" s="43"/>
-    </row>
-    <row r="38" spans="1:27">
-      <c r="A38" s="25">
+      <c r="I37" s="24"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O37" s="102"/>
+      <c r="P37" s="104"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="89"/>
+      <c r="AB37" s="89"/>
+      <c r="AC37" s="89"/>
+      <c r="AD37" s="89"/>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="93">
         <v>28</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="96">
         <v>45009</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="96">
         <v>45013</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="102">
         <v>16</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="21">
         <v>1</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="L38" s="43"/>
-    </row>
-    <row r="39" spans="1:27">
-      <c r="A39" s="25">
+      <c r="I38" s="24"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N38" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O38" s="102"/>
+      <c r="P38" s="104"/>
+      <c r="X38" s="89"/>
+      <c r="Y38" s="89"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="89"/>
+      <c r="AB38" s="89"/>
+      <c r="AC38" s="89"/>
+      <c r="AD38" s="89"/>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="93">
         <v>29</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="96">
         <v>45016</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="96">
         <v>45020</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="102">
         <v>16</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="21">
         <v>1</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="L39" s="43"/>
-    </row>
-    <row r="40" spans="1:27">
-      <c r="A40" s="25">
+      <c r="I39" s="24"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N39" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O39" s="102"/>
+      <c r="P39" s="104"/>
+      <c r="X39" s="89"/>
+      <c r="Y39" s="89"/>
+      <c r="Z39" s="89"/>
+      <c r="AA39" s="89"/>
+      <c r="AB39" s="89"/>
+      <c r="AC39" s="89"/>
+      <c r="AD39" s="89"/>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="93">
         <v>30</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="96">
         <v>44992</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="96">
         <v>44998</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="102">
         <v>35.200000000000003</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="21">
         <v>1</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="88">
         <v>44993</v>
       </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="47">
+      <c r="J40" s="78"/>
+      <c r="K40" s="83">
         <v>43</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="75">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
-      <c r="A41" s="25">
+      <c r="M40" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="103"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="104"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="89"/>
+      <c r="AA40" s="89"/>
+      <c r="AB40" s="89"/>
+      <c r="AC40" s="89"/>
+      <c r="AD40" s="89"/>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="93">
         <v>31</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="96">
         <v>45009</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="96">
         <v>45013</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="102">
         <v>25.6</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="21">
         <v>1</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="L41" s="43"/>
-    </row>
-    <row r="42" spans="1:27">
-      <c r="A42" s="25">
+      <c r="I41" s="24"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O41" s="102"/>
+      <c r="P41" s="104"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="89"/>
+      <c r="Z41" s="89"/>
+      <c r="AA41" s="89"/>
+      <c r="AB41" s="89"/>
+      <c r="AC41" s="89"/>
+      <c r="AD41" s="89"/>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="93">
         <v>32</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="96">
         <v>44992</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="96">
         <v>44998</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="102">
         <v>35.200000000000003</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="21">
         <v>1</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="88">
         <v>44993</v>
       </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="44">
+      <c r="J42" s="78"/>
+      <c r="K42" s="82">
         <v>2</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="75">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
-      <c r="A43" s="25">
+      <c r="M42" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" s="103"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="104"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="89"/>
+      <c r="AB42" s="89"/>
+      <c r="AC42" s="89"/>
+      <c r="AD42" s="89"/>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="93">
         <v>33</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="96">
         <v>44992</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="96">
         <v>44994</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="102">
         <v>25.6</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="21">
         <v>1</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="L43" s="43"/>
-    </row>
-    <row r="44" spans="1:27">
-      <c r="A44" s="25">
+      <c r="I43" s="24"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N43" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O43" s="102"/>
+      <c r="P43" s="104"/>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" s="93">
         <v>34</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="96">
         <v>45028</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="96">
         <v>45034</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="102">
         <v>35.200000000000003</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="21">
         <v>0</v>
       </c>
-      <c r="L44" s="43"/>
-    </row>
-    <row r="45" spans="1:27">
-      <c r="A45" s="25">
+      <c r="I44" s="24"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O44" s="102"/>
+      <c r="P44" s="104"/>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="93">
         <v>35</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="96">
         <v>45016</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="96">
         <v>45022</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="102">
         <v>35.200000000000003</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="21">
         <v>1</v>
       </c>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="L45" s="43"/>
-    </row>
-    <row r="46" spans="1:27">
-      <c r="A46" s="25">
+      <c r="I45" s="24"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N45" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O45" s="102"/>
+      <c r="P45" s="104"/>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="93">
         <v>36</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="96">
         <v>45035</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="96">
         <v>45037</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="102">
         <v>25.6</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="21">
         <v>0</v>
       </c>
-      <c r="L46" s="43"/>
-    </row>
-    <row r="47" spans="1:27">
-      <c r="A47" s="25">
+      <c r="I46" s="24"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O46" s="102"/>
+      <c r="P46" s="104"/>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="93">
         <v>37</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="96">
         <v>45023</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="96">
         <v>45030</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="102">
         <v>44.8</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="21">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I47" s="46"/>
-      <c r="L47" s="43"/>
-    </row>
-    <row r="48" spans="1:27">
-      <c r="A48" s="25">
+      <c r="I47" s="24"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N47" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O47" s="102"/>
+      <c r="P47" s="104"/>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="93">
         <v>38</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="96">
         <v>45026</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="96">
         <v>45030</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="102">
         <v>32</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="21">
         <v>0</v>
       </c>
-      <c r="L48" s="43"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="25">
+      <c r="I48" s="24"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="O48" s="102"/>
+      <c r="P48" s="104"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="105">
         <v>39</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="108">
         <v>45033</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="108">
         <v>45037</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="109">
         <v>35.200000000000003</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="73">
         <v>0</v>
       </c>
-      <c r="L49" s="43"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="I49" s="74"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="O49" s="109"/>
+      <c r="P49" s="111"/>
+    </row>
+    <row r="50" spans="1:16">
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
@@ -4349,7 +5476,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4365,112 +5494,112 @@
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="19">
         <v>44970</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="19">
         <v>44973</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="19">
         <v>44974</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="19">
         <v>44977</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="19">
         <v>44978</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <v>44981</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="19">
         <v>44984</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <v>44985</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="19">
         <v>44986</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <v>44988</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="19">
         <v>44991</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="19">
         <v>44994</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="19">
         <v>44995</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="19">
         <v>44998</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="19">
         <v>44999</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="19">
         <v>45005</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="19">
         <v>45006</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="19">
         <v>45008</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="19">
         <v>45009</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="19">
         <v>45014</v>
       </c>
     </row>
@@ -4492,962 +5621,962 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BO70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="59"/>
-    <col min="2" max="6" width="10.83203125" style="50"/>
-    <col min="7" max="16384" width="10.83203125" style="48"/>
+    <col min="1" max="1" width="10.83203125" style="34"/>
+    <col min="2" max="6" width="10.83203125" style="27"/>
+    <col min="7" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
-      <c r="A1" s="60"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:67">
-      <c r="A2" s="60"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:67">
-      <c r="A3" s="60"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:67">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="55"/>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="55"/>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="55"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
     </row>
     <row r="5" spans="1:67">
-      <c r="A5" s="59">
+      <c r="A5" s="34">
         <v>44970</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:67">
-      <c r="A6" s="59">
+      <c r="A6" s="34">
         <v>44971</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:67">
-      <c r="A7" s="59">
+      <c r="A7" s="34">
         <v>44972</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:67">
-      <c r="A8" s="59">
+      <c r="A8" s="34">
         <v>44973</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:67">
-      <c r="A9" s="59">
+      <c r="A9" s="34">
         <v>44974</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:67">
-      <c r="A10" s="59">
+      <c r="A10" s="34">
         <v>44975</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:67">
-      <c r="A11" s="59">
+      <c r="A11" s="34">
         <v>44976</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:67">
-      <c r="A12" s="59">
+      <c r="A12" s="34">
         <v>44977</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:67">
-      <c r="A13" s="59">
+      <c r="A13" s="34">
         <v>44978</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:67">
-      <c r="A14" s="59">
+      <c r="A14" s="34">
         <v>44979</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:67">
-      <c r="A15" s="59">
+      <c r="A15" s="34">
         <v>44980</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:67">
-      <c r="A16" s="59">
+      <c r="A16" s="34">
         <v>44981</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="59">
+      <c r="A17" s="34">
         <v>44984</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="59">
+      <c r="A18" s="34">
         <v>44985</v>
       </c>
-      <c r="B18" s="50">
-        <v>8</v>
-      </c>
-      <c r="P18" s="48" t="s">
+      <c r="B18" s="27">
+        <v>8</v>
+      </c>
+      <c r="P18" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="59">
+      <c r="A19" s="34">
         <v>44986</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="27">
         <v>32</v>
       </c>
-      <c r="C19" s="50">
-        <v>8</v>
-      </c>
-      <c r="D19" s="50">
-        <v>8</v>
-      </c>
-      <c r="E19" s="50">
-        <v>8</v>
-      </c>
-      <c r="F19" s="50">
+      <c r="C19" s="27">
+        <v>8</v>
+      </c>
+      <c r="D19" s="27">
+        <v>8</v>
+      </c>
+      <c r="E19" s="27">
+        <v>8</v>
+      </c>
+      <c r="F19" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="59">
+      <c r="A20" s="34">
         <v>44987</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="27">
         <v>32</v>
       </c>
-      <c r="C20" s="50">
-        <v>8</v>
-      </c>
-      <c r="D20" s="50">
-        <v>8</v>
-      </c>
-      <c r="E20" s="50">
-        <v>8</v>
-      </c>
-      <c r="F20" s="50">
+      <c r="C20" s="27">
+        <v>8</v>
+      </c>
+      <c r="D20" s="27">
+        <v>8</v>
+      </c>
+      <c r="E20" s="27">
+        <v>8</v>
+      </c>
+      <c r="F20" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="59">
+      <c r="A21" s="34">
         <v>44988</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="27">
         <v>24</v>
       </c>
-      <c r="C21" s="50">
-        <v>8</v>
-      </c>
-      <c r="D21" s="50">
-        <v>8</v>
-      </c>
-      <c r="F21" s="50">
+      <c r="C21" s="27">
+        <v>8</v>
+      </c>
+      <c r="D21" s="27">
+        <v>8</v>
+      </c>
+      <c r="F21" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="59">
+      <c r="A22" s="34">
         <v>44989</v>
       </c>
-      <c r="B22" s="50">
-        <v>8</v>
-      </c>
-      <c r="D22" s="50">
+      <c r="B22" s="27">
+        <v>8</v>
+      </c>
+      <c r="D22" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="59">
+      <c r="A23" s="34">
         <v>44990</v>
       </c>
-      <c r="B23" s="50">
-        <v>8</v>
-      </c>
-      <c r="D23" s="50">
+      <c r="B23" s="27">
+        <v>8</v>
+      </c>
+      <c r="D23" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="59">
+      <c r="A24" s="34">
         <v>44991</v>
       </c>
-      <c r="B24" s="50">
-        <v>8</v>
-      </c>
-      <c r="C24" s="50">
-        <v>8</v>
-      </c>
-      <c r="D24" s="50">
+      <c r="B24" s="27">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27">
+        <v>8</v>
+      </c>
+      <c r="D24" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="59">
+      <c r="A25" s="34">
         <v>44992</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="27">
         <v>16</v>
       </c>
-      <c r="C25" s="50">
-        <v>8</v>
-      </c>
-      <c r="D25" s="50">
+      <c r="C25" s="27">
+        <v>8</v>
+      </c>
+      <c r="D25" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="59">
+      <c r="A26" s="34">
         <v>44993</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="27">
         <v>16</v>
       </c>
-      <c r="C26" s="50">
-        <v>8</v>
-      </c>
-      <c r="D26" s="50">
+      <c r="C26" s="27">
+        <v>8</v>
+      </c>
+      <c r="D26" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="59">
+      <c r="A27" s="34">
         <v>44994</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="27">
         <v>16</v>
       </c>
-      <c r="C27" s="50">
-        <v>8</v>
-      </c>
-      <c r="D27" s="50">
-        <v>8</v>
-      </c>
-      <c r="F27" s="50">
+      <c r="C27" s="27">
+        <v>8</v>
+      </c>
+      <c r="D27" s="27">
+        <v>8</v>
+      </c>
+      <c r="F27" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="59">
+      <c r="A28" s="34">
         <v>44995</v>
       </c>
-      <c r="B28" s="50">
-        <v>8</v>
-      </c>
-      <c r="C28" s="50">
-        <v>8</v>
-      </c>
-      <c r="D28" s="50">
-        <v>8</v>
-      </c>
-      <c r="E28" s="50">
-        <v>8</v>
-      </c>
-      <c r="F28" s="50">
+      <c r="B28" s="27">
+        <v>8</v>
+      </c>
+      <c r="C28" s="27">
+        <v>8</v>
+      </c>
+      <c r="D28" s="27">
+        <v>8</v>
+      </c>
+      <c r="E28" s="27">
+        <v>8</v>
+      </c>
+      <c r="F28" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="59">
+      <c r="A29" s="34">
         <v>44996</v>
       </c>
-      <c r="B29" s="50">
-        <v>8</v>
-      </c>
-      <c r="C29" s="50">
-        <v>8</v>
-      </c>
-      <c r="D29" s="50">
-        <v>8</v>
-      </c>
-      <c r="E29" s="50">
-        <v>8</v>
-      </c>
-      <c r="F29" s="50">
+      <c r="B29" s="27">
+        <v>8</v>
+      </c>
+      <c r="C29" s="27">
+        <v>8</v>
+      </c>
+      <c r="D29" s="27">
+        <v>8</v>
+      </c>
+      <c r="E29" s="27">
+        <v>8</v>
+      </c>
+      <c r="F29" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="59">
+      <c r="A30" s="34">
         <v>44997</v>
       </c>
-      <c r="B30" s="50">
-        <v>8</v>
-      </c>
-      <c r="C30" s="50">
-        <v>8</v>
-      </c>
-      <c r="D30" s="50">
-        <v>8</v>
-      </c>
-      <c r="E30" s="50">
-        <v>8</v>
-      </c>
-      <c r="F30" s="50">
+      <c r="B30" s="27">
+        <v>8</v>
+      </c>
+      <c r="C30" s="27">
+        <v>8</v>
+      </c>
+      <c r="D30" s="27">
+        <v>8</v>
+      </c>
+      <c r="E30" s="27">
+        <v>8</v>
+      </c>
+      <c r="F30" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="59">
+      <c r="A31" s="34">
         <v>44998</v>
       </c>
-      <c r="B31" s="50">
-        <v>8</v>
-      </c>
-      <c r="C31" s="50">
-        <v>8</v>
-      </c>
-      <c r="D31" s="50">
-        <v>8</v>
-      </c>
-      <c r="E31" s="50">
-        <v>8</v>
-      </c>
-      <c r="F31" s="50">
+      <c r="B31" s="27">
+        <v>8</v>
+      </c>
+      <c r="C31" s="27">
+        <v>8</v>
+      </c>
+      <c r="D31" s="27">
+        <v>8</v>
+      </c>
+      <c r="E31" s="27">
+        <v>8</v>
+      </c>
+      <c r="F31" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="59">
+      <c r="A32" s="34">
         <v>44999</v>
       </c>
-      <c r="C32" s="50">
-        <v>8</v>
-      </c>
-      <c r="D32" s="50">
-        <v>8</v>
-      </c>
-      <c r="E32" s="50">
-        <v>8</v>
-      </c>
-      <c r="F32" s="50">
+      <c r="C32" s="27">
+        <v>8</v>
+      </c>
+      <c r="D32" s="27">
+        <v>8</v>
+      </c>
+      <c r="E32" s="27">
+        <v>8</v>
+      </c>
+      <c r="F32" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="59">
+      <c r="A33" s="34">
         <v>45000</v>
       </c>
-      <c r="C33" s="50">
-        <v>8</v>
-      </c>
-      <c r="D33" s="50">
-        <v>8</v>
-      </c>
-      <c r="F33" s="50">
+      <c r="C33" s="27">
+        <v>8</v>
+      </c>
+      <c r="D33" s="27">
+        <v>8</v>
+      </c>
+      <c r="F33" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="59">
+      <c r="A34" s="34">
         <v>45001</v>
       </c>
-      <c r="C34" s="50">
-        <v>8</v>
-      </c>
-      <c r="D34" s="50">
+      <c r="C34" s="27">
+        <v>8</v>
+      </c>
+      <c r="D34" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="59">
+      <c r="A35" s="34">
         <v>45002</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="59">
+      <c r="A36" s="34">
         <v>45003</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="59">
+      <c r="A37" s="34">
         <v>45004</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="59">
+      <c r="A38" s="34">
         <v>45005</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="59">
+      <c r="A39" s="34">
         <v>45006</v>
       </c>
-      <c r="C39" s="50">
-        <v>8</v>
-      </c>
-      <c r="D39" s="50">
-        <v>8</v>
-      </c>
-      <c r="E39" s="50">
+      <c r="C39" s="27">
+        <v>8</v>
+      </c>
+      <c r="D39" s="27">
+        <v>8</v>
+      </c>
+      <c r="E39" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="59">
+      <c r="A40" s="34">
         <v>45007</v>
       </c>
-      <c r="C40" s="50">
-        <v>8</v>
-      </c>
-      <c r="D40" s="50">
-        <v>8</v>
-      </c>
-      <c r="E40" s="50">
+      <c r="C40" s="27">
+        <v>8</v>
+      </c>
+      <c r="D40" s="27">
+        <v>8</v>
+      </c>
+      <c r="E40" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="59">
+      <c r="A41" s="34">
         <v>45008</v>
       </c>
-      <c r="C41" s="50">
-        <v>8</v>
-      </c>
-      <c r="D41" s="50">
-        <v>8</v>
-      </c>
-      <c r="E41" s="50">
+      <c r="C41" s="27">
+        <v>8</v>
+      </c>
+      <c r="D41" s="27">
+        <v>8</v>
+      </c>
+      <c r="E41" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="59">
+      <c r="A42" s="34">
         <v>45009</v>
       </c>
-      <c r="C42" s="50">
-        <v>8</v>
-      </c>
-      <c r="D42" s="50">
-        <v>8</v>
-      </c>
-      <c r="E42" s="50">
-        <v>8</v>
-      </c>
-      <c r="F42" s="50">
+      <c r="C42" s="27">
+        <v>8</v>
+      </c>
+      <c r="D42" s="27">
+        <v>8</v>
+      </c>
+      <c r="E42" s="27">
+        <v>8</v>
+      </c>
+      <c r="F42" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="59">
+      <c r="A43" s="34">
         <v>45010</v>
       </c>
-      <c r="C43" s="50">
-        <v>8</v>
-      </c>
-      <c r="E43" s="50">
-        <v>8</v>
-      </c>
-      <c r="F43" s="50">
+      <c r="C43" s="27">
+        <v>8</v>
+      </c>
+      <c r="E43" s="27">
+        <v>8</v>
+      </c>
+      <c r="F43" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="59">
+      <c r="A44" s="34">
         <v>45011</v>
       </c>
-      <c r="C44" s="50">
-        <v>8</v>
-      </c>
-      <c r="E44" s="50">
-        <v>8</v>
-      </c>
-      <c r="F44" s="50">
+      <c r="C44" s="27">
+        <v>8</v>
+      </c>
+      <c r="E44" s="27">
+        <v>8</v>
+      </c>
+      <c r="F44" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="59">
+      <c r="A45" s="34">
         <v>45012</v>
       </c>
-      <c r="C45" s="50">
-        <v>8</v>
-      </c>
-      <c r="D45" s="50">
-        <v>8</v>
-      </c>
-      <c r="E45" s="50">
-        <v>8</v>
-      </c>
-      <c r="F45" s="50">
+      <c r="C45" s="27">
+        <v>8</v>
+      </c>
+      <c r="D45" s="27">
+        <v>8</v>
+      </c>
+      <c r="E45" s="27">
+        <v>8</v>
+      </c>
+      <c r="F45" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="59">
+      <c r="A46" s="34">
         <v>45013</v>
       </c>
-      <c r="C46" s="50">
-        <v>8</v>
-      </c>
-      <c r="D46" s="50">
-        <v>8</v>
-      </c>
-      <c r="E46" s="50">
-        <v>8</v>
-      </c>
-      <c r="F46" s="50">
+      <c r="C46" s="27">
+        <v>8</v>
+      </c>
+      <c r="D46" s="27">
+        <v>8</v>
+      </c>
+      <c r="E46" s="27">
+        <v>8</v>
+      </c>
+      <c r="F46" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="59">
+      <c r="A47" s="34">
         <v>45014</v>
       </c>
-      <c r="C47" s="50">
-        <v>8</v>
-      </c>
-      <c r="D47" s="50">
+      <c r="C47" s="27">
+        <v>8</v>
+      </c>
+      <c r="D47" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="59">
+      <c r="A48" s="34">
         <v>45015</v>
       </c>
-      <c r="C48" s="50">
-        <v>8</v>
-      </c>
-      <c r="D48" s="50">
+      <c r="C48" s="27">
+        <v>8</v>
+      </c>
+      <c r="D48" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="59">
+      <c r="A49" s="34">
         <v>45016</v>
       </c>
-      <c r="C49" s="50">
-        <v>8</v>
-      </c>
-      <c r="D49" s="50">
-        <v>8</v>
-      </c>
-      <c r="E49" s="50">
-        <v>8</v>
-      </c>
-      <c r="F49" s="50">
+      <c r="C49" s="27">
+        <v>8</v>
+      </c>
+      <c r="D49" s="27">
+        <v>8</v>
+      </c>
+      <c r="E49" s="27">
+        <v>8</v>
+      </c>
+      <c r="F49" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="59">
+      <c r="A50" s="34">
         <v>45017</v>
       </c>
-      <c r="C50" s="50">
-        <v>8</v>
-      </c>
-      <c r="D50" s="50">
-        <v>8</v>
-      </c>
-      <c r="E50" s="50">
-        <v>8</v>
-      </c>
-      <c r="F50" s="50">
+      <c r="C50" s="27">
+        <v>8</v>
+      </c>
+      <c r="D50" s="27">
+        <v>8</v>
+      </c>
+      <c r="E50" s="27">
+        <v>8</v>
+      </c>
+      <c r="F50" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="59">
+      <c r="A51" s="34">
         <v>45018</v>
       </c>
-      <c r="C51" s="50">
-        <v>8</v>
-      </c>
-      <c r="D51" s="50">
-        <v>8</v>
-      </c>
-      <c r="E51" s="50">
-        <v>8</v>
-      </c>
-      <c r="F51" s="50">
+      <c r="C51" s="27">
+        <v>8</v>
+      </c>
+      <c r="D51" s="27">
+        <v>8</v>
+      </c>
+      <c r="E51" s="27">
+        <v>8</v>
+      </c>
+      <c r="F51" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="59">
+      <c r="A52" s="34">
         <v>45019</v>
       </c>
-      <c r="C52" s="50">
-        <v>8</v>
-      </c>
-      <c r="D52" s="50">
-        <v>8</v>
-      </c>
-      <c r="E52" s="50">
-        <v>8</v>
-      </c>
-      <c r="F52" s="50">
+      <c r="C52" s="27">
+        <v>8</v>
+      </c>
+      <c r="D52" s="27">
+        <v>8</v>
+      </c>
+      <c r="E52" s="27">
+        <v>8</v>
+      </c>
+      <c r="F52" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="59">
+      <c r="A53" s="34">
         <v>45020</v>
       </c>
-      <c r="C53" s="50">
-        <v>8</v>
-      </c>
-      <c r="D53" s="50">
-        <v>8</v>
-      </c>
-      <c r="E53" s="50">
-        <v>8</v>
-      </c>
-      <c r="F53" s="50">
+      <c r="C53" s="27">
+        <v>8</v>
+      </c>
+      <c r="D53" s="27">
+        <v>8</v>
+      </c>
+      <c r="E53" s="27">
+        <v>8</v>
+      </c>
+      <c r="F53" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="59">
+      <c r="A54" s="34">
         <v>45021</v>
       </c>
-      <c r="C54" s="50">
-        <v>8</v>
-      </c>
-      <c r="D54" s="50">
-        <v>8</v>
-      </c>
-      <c r="F54" s="50">
+      <c r="C54" s="27">
+        <v>8</v>
+      </c>
+      <c r="D54" s="27">
+        <v>8</v>
+      </c>
+      <c r="F54" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="59">
+      <c r="A55" s="34">
         <v>45022</v>
       </c>
-      <c r="C55" s="50">
-        <v>8</v>
-      </c>
-      <c r="D55" s="50">
-        <v>8</v>
-      </c>
-      <c r="F55" s="50">
+      <c r="C55" s="27">
+        <v>8</v>
+      </c>
+      <c r="D55" s="27">
+        <v>8</v>
+      </c>
+      <c r="F55" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="59">
+      <c r="A56" s="34">
         <v>45023</v>
       </c>
-      <c r="C56" s="50">
-        <v>8</v>
-      </c>
-      <c r="D56" s="50">
-        <v>8</v>
-      </c>
-      <c r="E56" s="50">
+      <c r="C56" s="27">
+        <v>8</v>
+      </c>
+      <c r="D56" s="27">
+        <v>8</v>
+      </c>
+      <c r="E56" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="59">
+      <c r="A57" s="34">
         <v>45024</v>
       </c>
-      <c r="D57" s="50">
-        <v>8</v>
-      </c>
-      <c r="E57" s="50">
+      <c r="D57" s="27">
+        <v>8</v>
+      </c>
+      <c r="E57" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="59">
+      <c r="A58" s="34">
         <v>45025</v>
       </c>
-      <c r="D58" s="50">
-        <v>8</v>
-      </c>
-      <c r="E58" s="50">
+      <c r="D58" s="27">
+        <v>8</v>
+      </c>
+      <c r="E58" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="59">
+      <c r="A59" s="34">
         <v>45026</v>
       </c>
-      <c r="C59" s="50">
-        <v>8</v>
-      </c>
-      <c r="D59" s="50">
-        <v>8</v>
-      </c>
-      <c r="E59" s="50">
+      <c r="C59" s="27">
+        <v>8</v>
+      </c>
+      <c r="D59" s="27">
+        <v>8</v>
+      </c>
+      <c r="E59" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="59">
+      <c r="A60" s="34">
         <v>45027</v>
       </c>
-      <c r="C60" s="50">
-        <v>8</v>
-      </c>
-      <c r="D60" s="50">
-        <v>8</v>
-      </c>
-      <c r="E60" s="50">
+      <c r="C60" s="27">
+        <v>8</v>
+      </c>
+      <c r="D60" s="27">
+        <v>8</v>
+      </c>
+      <c r="E60" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="59">
+      <c r="A61" s="34">
         <v>45028</v>
       </c>
-      <c r="C61" s="50">
-        <v>8</v>
-      </c>
-      <c r="D61" s="50">
-        <v>8</v>
-      </c>
-      <c r="E61" s="50">
-        <v>8</v>
-      </c>
-      <c r="F61" s="50">
+      <c r="C61" s="27">
+        <v>8</v>
+      </c>
+      <c r="D61" s="27">
+        <v>8</v>
+      </c>
+      <c r="E61" s="27">
+        <v>8</v>
+      </c>
+      <c r="F61" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="59">
+      <c r="A62" s="34">
         <v>45029</v>
       </c>
-      <c r="C62" s="50">
-        <v>8</v>
-      </c>
-      <c r="E62" s="50">
-        <v>8</v>
-      </c>
-      <c r="F62" s="50">
+      <c r="C62" s="27">
+        <v>8</v>
+      </c>
+      <c r="E62" s="27">
+        <v>8</v>
+      </c>
+      <c r="F62" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="59">
+      <c r="A63" s="34">
         <v>45030</v>
       </c>
-      <c r="C63" s="50">
-        <v>8</v>
-      </c>
-      <c r="E63" s="50">
-        <v>8</v>
-      </c>
-      <c r="F63" s="50">
+      <c r="C63" s="27">
+        <v>8</v>
+      </c>
+      <c r="E63" s="27">
+        <v>8</v>
+      </c>
+      <c r="F63" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="59">
+      <c r="A64" s="34">
         <v>45031</v>
       </c>
-      <c r="F64" s="50">
+      <c r="F64" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="59">
+      <c r="A65" s="34">
         <v>45032</v>
       </c>
-      <c r="F65" s="50">
+      <c r="F65" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="59">
+      <c r="A66" s="34">
         <v>45033</v>
       </c>
-      <c r="E66" s="50">
-        <v>8</v>
-      </c>
-      <c r="F66" s="50">
+      <c r="E66" s="27">
+        <v>8</v>
+      </c>
+      <c r="F66" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="59">
+      <c r="A67" s="34">
         <v>45034</v>
       </c>
-      <c r="E67" s="50">
-        <v>8</v>
-      </c>
-      <c r="F67" s="50">
+      <c r="E67" s="27">
+        <v>8</v>
+      </c>
+      <c r="F67" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="59">
+      <c r="A68" s="34">
         <v>45035</v>
       </c>
-      <c r="E68" s="50">
-        <v>8</v>
-      </c>
-      <c r="F68" s="50">
+      <c r="E68" s="27">
+        <v>8</v>
+      </c>
+      <c r="F68" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="59">
+      <c r="A69" s="34">
         <v>45036</v>
       </c>
-      <c r="E69" s="50">
-        <v>8</v>
-      </c>
-      <c r="F69" s="50">
+      <c r="E69" s="27">
+        <v>8</v>
+      </c>
+      <c r="F69" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="59">
+      <c r="A70" s="34">
         <v>45037</v>
       </c>
-      <c r="E70" s="50">
-        <v>8</v>
-      </c>
-      <c r="F70" s="50">
+      <c r="E70" s="27">
+        <v>8</v>
+      </c>
+      <c r="F70" s="27">
         <v>8</v>
       </c>
     </row>
@@ -5473,203 +6602,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="48"/>
-    <col min="3" max="4" width="12.1640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="48"/>
+    <col min="1" max="2" width="10.83203125" style="25"/>
+    <col min="3" max="4" width="12.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="55"/>
+      <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="55"/>
+      <c r="A3" s="31"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="55"/>
+      <c r="A4" s="31"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="33">
         <v>44970</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="33">
         <v>45026</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="49">
+      <c r="A8" s="26">
         <v>44970</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="27">
         <v>48</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="27">
         <v>48</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="27">
         <v>82</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="27">
         <v>1</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="32">
         <v>0.58536585365853655</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="49">
+      <c r="A9" s="26">
         <v>44977</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="27">
         <v>96</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="27">
         <v>7968</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="27">
         <v>97</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="27">
         <v>83</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="32">
         <v>82.144329896907223</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="49">
+      <c r="A10" s="26">
         <v>44984</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="27">
         <v>344</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="27">
         <v>61920</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="27">
         <v>8161</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="27">
         <v>180</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="32">
         <v>7.5873054772699424</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49">
+      <c r="A11" s="26">
         <v>44991</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="27">
         <v>734.4</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="27">
         <v>6125547.7800000003</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="27">
         <v>70114</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="27">
         <v>8340.8875000000007</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="32">
         <v>87.365544399121433</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="49">
+      <c r="A12" s="26">
         <v>44998</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="27">
         <v>1414.4</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="27">
         <v>110966418.60571431</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="27">
         <v>6195593.7800000003</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="27">
         <v>78454.764285714293</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="32">
         <v>17.910538125324656</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="49">
+      <c r="A13" s="26">
         <v>45005</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="27">
         <v>2821.6000000000004</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="27">
         <v>17702854979.548004</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="27">
         <v>117161922.38571431</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="27">
         <v>6274048.4050000003</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="32">
         <v>151.09734134668426</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="49">
+      <c r="A14" s="26">
         <v>45012</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="27">
         <v>5684.8</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27">
         <v>17820016881.93372</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="56"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="49">
+      <c r="A15" s="26">
         <v>45019</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="27">
         <v>11376.800000000001</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27">
         <v>17820016881.93372</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="56"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="32"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B6">
@@ -5746,10 +6875,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E9EE1A-2DED-804C-9893-2A063F9845B7}">
-  <dimension ref="A1:AD88"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -5763,571 +6892,207 @@
     <col min="7" max="7" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="49" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="86">
-        <v>8</v>
-      </c>
-      <c r="F2" s="87">
+      <c r="E2" s="53">
+        <v>8</v>
+      </c>
+      <c r="F2" s="54">
         <v>1</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="52" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="85">
+    <row r="3" spans="1:7">
+      <c r="A3" s="52">
         <v>45370</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="86">
-        <v>8</v>
-      </c>
-      <c r="F3" s="87">
+      <c r="E3" s="53">
+        <v>8</v>
+      </c>
+      <c r="F3" s="54">
         <v>1</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="52" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="85">
+    <row r="4" spans="1:7">
+      <c r="A4" s="52">
         <v>45370</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="86">
-        <v>8</v>
-      </c>
-      <c r="F4" s="87">
+      <c r="E4" s="53">
+        <v>8</v>
+      </c>
+      <c r="F4" s="54">
         <v>1</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="52" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="85">
+    <row r="5" spans="1:7">
+      <c r="A5" s="52">
         <v>45370</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="86">
-        <v>8</v>
-      </c>
-      <c r="F5" s="87">
+      <c r="E5" s="53">
+        <v>8</v>
+      </c>
+      <c r="F5" s="54">
         <v>1</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="52" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="85">
+    <row r="6" spans="1:7">
+      <c r="A6" s="52">
         <v>45370</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="86">
-        <v>8</v>
-      </c>
-      <c r="F6" s="87">
+      <c r="E6" s="53">
+        <v>8</v>
+      </c>
+      <c r="F6" s="54">
         <v>1</v>
       </c>
-      <c r="G6" s="85"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="85">
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="52">
         <v>45370</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="86">
-        <v>8</v>
-      </c>
-      <c r="F7" s="87">
+      <c r="E7" s="53">
+        <v>8</v>
+      </c>
+      <c r="F7" s="54">
         <v>1</v>
       </c>
-      <c r="G7" s="85"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="85">
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="52">
         <v>45370</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="86">
-        <v>8</v>
-      </c>
-      <c r="F8" s="87">
+      <c r="E8" s="53">
+        <v>8</v>
+      </c>
+      <c r="F8" s="54">
         <v>1</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="52" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="85">
+    <row r="9" spans="1:7">
+      <c r="A9" s="52">
         <v>45370</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="86">
-        <v>8</v>
-      </c>
-      <c r="F9" s="87">
+      <c r="E9" s="53">
+        <v>8</v>
+      </c>
+      <c r="F9" s="54">
         <v>1</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="52" t="s">
         <v>127</v>
-      </c>
-      <c r="H9" s="89"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="R23" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="P24" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="N25" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="Y26" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD26" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="K28" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="P29" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="O31" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="W32" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="10:30">
-      <c r="U33" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="10:30">
-      <c r="L34" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="10:30">
-      <c r="AB35" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="10:30">
-      <c r="R36" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="T36" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="10:30">
-      <c r="J37" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="10:30">
-      <c r="O39" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y39" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="10:30">
-      <c r="Q40" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="R40" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD40" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="10:30">
-      <c r="U41" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="10:30">
-      <c r="S43" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="10:30">
-      <c r="Y44" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="10:30">
-      <c r="M47" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="10:30">
-      <c r="J48" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="M48" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="10:23">
-      <c r="W49" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="10:23">
-      <c r="P50" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="10:23">
-      <c r="J61" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="20:20">
-      <c r="T66" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="8:8">
-      <c r="H88" s="76" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6344,7 +7109,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -6356,13 +7121,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
